--- a/posesiones/1485992.xlsx
+++ b/posesiones/1485992.xlsx
@@ -1937,10 +1937,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>6</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>5</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <v>3</v>
@@ -2666,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>15</v>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>23</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2819,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21">
         <v>16</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R26">
         <v>17</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R29">
         <v>24</v>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R34">
         <v>8</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3604,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R37">
         <v>38</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R39">
         <v>11</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R41">
         <v>23</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R43">
         <v>10</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R45">
         <v>22</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R47">
         <v>9</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R52">
         <v>11</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R56">
         <v>27</v>
@@ -4610,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R57">
         <v>19</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4804,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R61">
         <v>29</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4951,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R64">
         <v>13</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5051,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R66">
         <v>14</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5151,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R68">
         <v>15</v>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5254,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R70">
         <v>20</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5451,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R74">
         <v>25</v>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R75">
         <v>17</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6274,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R91">
         <v>25</v>
@@ -6327,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R93">
         <v>12</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6480,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R95">
         <v>9</v>
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R96">
         <v>18</v>
@@ -6586,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R97">
         <v>18</v>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6830,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R102">
         <v>8</v>
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6933,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R104">
         <v>13</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7033,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R106">
         <v>14</v>
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7224,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7274,7 +7274,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R111">
         <v>24</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7377,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R113">
         <v>15</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R124">
         <v>23</v>
@@ -7959,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R125">
         <v>1</v>
@@ -8003,10 +8003,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8194,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8235,10 +8235,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8379,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8429,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R135">
         <v>11</v>
@@ -8482,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R136">
         <v>14</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8582,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R138">
         <v>16</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8682,7 +8682,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R140">
         <v>15</v>
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8782,7 +8782,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R142">
         <v>24</v>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8885,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R144">
         <v>11</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8988,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R146">
         <v>7</v>
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9182,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R150">
         <v>16</v>
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9285,7 +9285,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R152">
         <v>8</v>
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9385,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R154">
         <v>9</v>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9529,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9626,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R159">
         <v>16</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R161">
         <v>15</v>
@@ -9782,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R162">
         <v>12</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9885,7 +9885,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R164">
         <v>5</v>
@@ -9935,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R166">
         <v>4</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10273,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R172">
         <v>15</v>
@@ -10326,7 +10326,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R173">
         <v>21</v>
@@ -10379,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R174">
         <v>18</v>
@@ -10432,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R175">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10579,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10629,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R179">
         <v>19</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10876,7 +10876,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R184">
         <v>31</v>
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R185">
         <v>18</v>
@@ -10982,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11126,7 +11126,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11176,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11226,7 +11226,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R191">
         <v>8</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11511,7 +11511,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R197">
         <v>22</v>
@@ -11564,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11614,7 +11614,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R199">
         <v>21</v>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11714,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11811,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R203">
         <v>18</v>
@@ -11858,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12093,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12140,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12237,7 +12237,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R212">
         <v>36</v>
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12337,7 +12337,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12431,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12478,7 +12478,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12525,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12619,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12666,7 +12666,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12713,7 +12713,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R222">
         <v>23</v>
@@ -12766,7 +12766,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R223">
         <v>25</v>
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12863,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12910,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13007,7 +13007,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R228">
         <v>33</v>
@@ -13060,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13110,7 +13110,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R230">
         <v>10</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13210,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13304,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13351,7 +13351,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13398,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13445,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13539,7 +13539,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13589,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R241">
         <v>22</v>
@@ -13686,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13736,7 +13736,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R243">
         <v>16</v>
@@ -13789,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R244">
         <v>16</v>
@@ -13842,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13939,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13989,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R248">
         <v>20</v>
@@ -14033,10 +14033,10 @@
         <v>1</v>
       </c>
       <c r="P249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q249">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14130,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14177,7 +14177,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14224,7 +14224,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14271,7 +14271,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14318,7 +14318,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14359,10 +14359,10 @@
         <v>1</v>
       </c>
       <c r="P256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q256">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14412,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R257">
         <v>18</v>
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14515,7 +14515,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R259">
         <v>21</v>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14618,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R261">
         <v>4</v>
@@ -14668,7 +14668,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14718,7 +14718,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14768,7 +14768,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R264">
         <v>22</v>
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14871,7 +14871,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R266">
         <v>15</v>
@@ -14924,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14974,7 +14974,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R268">
         <v>11</v>
@@ -15027,7 +15027,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15074,7 +15074,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15121,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15171,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R272">
         <v>12</v>
@@ -15221,7 +15221,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R274">
         <v>22</v>
@@ -15321,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15412,7 +15412,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15462,7 +15462,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R278">
         <v>30</v>
@@ -15512,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15562,7 +15562,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R280">
         <v>29</v>
@@ -15615,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15665,7 +15665,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R282">
         <v>6</v>
@@ -15718,7 +15718,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15768,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R284">
         <v>6</v>
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15868,7 +15868,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15918,7 +15918,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R287">
         <v>6</v>
@@ -15968,7 +15968,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16062,7 +16062,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16112,7 +16112,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R291">
         <v>0</v>
@@ -16165,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16215,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R293">
         <v>10</v>
@@ -16265,7 +16265,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16315,7 +16315,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R295">
         <v>7</v>
@@ -16365,7 +16365,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16412,7 +16412,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16462,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16509,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16562,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R300">
         <v>23</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16659,7 +16659,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R303">
         <v>0</v>
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16809,7 +16809,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16856,7 +16856,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17003,7 +17003,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R309">
         <v>23</v>
@@ -17056,7 +17056,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17106,7 +17106,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R311">
         <v>3</v>
@@ -17156,7 +17156,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17203,7 +17203,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17250,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17300,7 +17300,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R315">
         <v>12</v>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17400,7 +17400,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R317">
         <v>5</v>
@@ -17453,7 +17453,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R318">
         <v>10</v>
@@ -17503,7 +17503,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17553,7 +17553,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R320">
         <v>4</v>
@@ -17603,7 +17603,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17647,7 +17647,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17741,7 +17741,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17791,7 +17791,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R325">
         <v>14</v>
@@ -17844,7 +17844,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R326">
         <v>10</v>
@@ -17897,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17947,7 +17947,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R328">
         <v>15</v>
@@ -17997,7 +17997,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18047,7 +18047,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18094,7 +18094,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18141,7 +18141,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18238,7 +18238,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R334">
         <v>30</v>
@@ -18291,7 +18291,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R335">
         <v>17</v>
@@ -18341,7 +18341,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18391,7 +18391,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R337">
         <v>31</v>
@@ -18444,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18494,7 +18494,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R339">
         <v>16</v>
@@ -18547,7 +18547,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18597,7 +18597,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R341">
         <v>7</v>
@@ -18647,7 +18647,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18697,7 +18697,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R343">
         <v>8</v>
@@ -18750,7 +18750,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R344">
         <v>19</v>
@@ -18803,7 +18803,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18853,7 +18853,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R346">
         <v>8</v>
@@ -18900,7 +18900,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18947,7 +18947,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18994,7 +18994,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19044,7 +19044,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R350">
         <v>8</v>
@@ -19094,7 +19094,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19144,7 +19144,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R352">
         <v>5</v>
@@ -19194,7 +19194,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19291,7 +19291,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19341,7 +19341,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R356">
         <v>27</v>
@@ -19391,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19438,7 +19438,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19488,7 +19488,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19538,7 +19538,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R360">
         <v>30</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19641,7 +19641,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R362">
         <v>24</v>
@@ -19694,7 +19694,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19744,7 +19744,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R364">
         <v>5</v>
@@ -19794,7 +19794,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19841,7 +19841,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19935,7 +19935,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19982,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20029,7 +20029,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20079,7 +20079,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R371">
         <v>12</v>
@@ -20129,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20176,7 +20176,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20223,7 +20223,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20270,7 +20270,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20317,7 +20317,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20411,7 +20411,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20458,7 +20458,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20505,7 +20505,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20552,7 +20552,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20599,7 +20599,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20646,7 +20646,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20696,7 +20696,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R384">
         <v>14</v>
@@ -20740,10 +20740,10 @@
         <v>1</v>
       </c>
       <c r="P385" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q385">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20790,7 +20790,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20837,7 +20837,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20884,7 +20884,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20931,7 +20931,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20972,10 +20972,10 @@
         <v>1</v>
       </c>
       <c r="P390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q390">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21025,7 +21025,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R391">
         <v>4</v>
@@ -21075,7 +21075,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21122,7 +21122,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21169,7 +21169,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21219,7 +21219,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R395">
         <v>0</v>
@@ -21269,7 +21269,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21316,7 +21316,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21363,7 +21363,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21410,7 +21410,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21457,7 +21457,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21507,7 +21507,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21557,7 +21557,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R402">
         <v>46</v>
@@ -21610,7 +21610,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R403">
         <v>9</v>
@@ -21663,7 +21663,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R404">
         <v>20</v>
@@ -21713,7 +21713,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21763,7 +21763,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R406">
         <v>16</v>
@@ -21813,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21860,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21907,7 +21907,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21957,7 +21957,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R410">
         <v>22</v>
@@ -22010,7 +22010,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22057,7 +22057,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22107,7 +22107,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22154,7 +22154,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R414">
         <v>23</v>
@@ -22207,7 +22207,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R415">
         <v>20</v>
@@ -22260,7 +22260,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22310,7 +22310,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R417">
         <v>24</v>
@@ -22363,7 +22363,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22413,7 +22413,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R419">
         <v>23</v>
@@ -22463,7 +22463,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22513,7 +22513,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R421">
         <v>10</v>
@@ -22563,7 +22563,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22657,7 +22657,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22704,7 +22704,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22751,7 +22751,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22845,7 +22845,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22942,7 +22942,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R430">
         <v>12</v>
@@ -22992,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23042,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23142,7 +23142,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R434">
         <v>9</v>
@@ -23192,7 +23192,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23239,7 +23239,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23286,7 +23286,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23333,7 +23333,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23380,7 +23380,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23474,7 +23474,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23524,7 +23524,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R442">
         <v>15</v>
@@ -23574,7 +23574,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23762,7 +23762,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23812,7 +23812,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R448">
         <v>20</v>
@@ -23865,7 +23865,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23915,7 +23915,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R450">
         <v>10</v>
@@ -23968,7 +23968,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24015,7 +24015,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24115,7 +24115,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R454">
         <v>9</v>
@@ -24162,7 +24162,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24212,7 +24212,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R456">
         <v>20</v>
@@ -24265,7 +24265,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R457">
         <v>28</v>
@@ -24315,7 +24315,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24365,7 +24365,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R459">
         <v>13</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24465,7 +24465,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R461">
         <v>5</v>
@@ -24518,7 +24518,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24568,7 +24568,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R463">
         <v>23</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24671,7 +24671,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R465">
         <v>8</v>
@@ -24721,7 +24721,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24771,7 +24771,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R467">
         <v>4</v>
@@ -24824,7 +24824,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R468">
         <v>14</v>
@@ -24877,7 +24877,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R469">
         <v>17</v>
@@ -24927,7 +24927,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24974,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25021,7 +25021,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25068,7 +25068,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25115,7 +25115,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25212,7 +25212,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25309,7 +25309,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R478">
         <v>25</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25412,7 +25412,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R480">
         <v>11</v>
@@ -25462,7 +25462,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25509,7 +25509,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25556,7 +25556,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25653,7 +25653,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R485">
         <v>23</v>
@@ -25703,7 +25703,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25750,7 +25750,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25847,7 +25847,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R489">
         <v>0</v>
@@ -25900,7 +25900,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25950,7 +25950,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R491">
         <v>2</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26050,7 +26050,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R493">
         <v>5</v>
@@ -26100,7 +26100,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26144,7 +26144,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26194,7 +26194,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R496">
         <v>16</v>
@@ -26247,7 +26247,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26297,7 +26297,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R498">
         <v>22</v>
@@ -26350,7 +26350,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26400,7 +26400,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R500">
         <v>9</v>
@@ -26450,7 +26450,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26494,7 +26494,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26538,7 +26538,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26632,7 +26632,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26679,7 +26679,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26729,7 +26729,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26779,7 +26779,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R508">
         <v>21</v>
@@ -26829,7 +26829,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26876,7 +26876,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26926,7 +26926,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R511">
         <v>14</v>
@@ -26976,7 +26976,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27023,7 +27023,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27070,7 +27070,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27117,7 +27117,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27164,7 +27164,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27214,7 +27214,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R517">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27311,7 +27311,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27358,7 +27358,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27408,7 +27408,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R521">
         <v>6</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27555,7 +27555,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R524">
         <v>2</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27652,7 +27652,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27699,7 +27699,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27749,7 +27749,7 @@
         <v>1</v>
       </c>
       <c r="Q528">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R528">
         <v>9</v>
@@ -27802,7 +27802,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27852,7 +27852,7 @@
         <v>1</v>
       </c>
       <c r="Q530">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R530">
         <v>4</v>
@@ -27902,7 +27902,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27993,7 +27993,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -28040,7 +28040,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28087,7 +28087,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28134,7 +28134,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28181,7 +28181,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28228,7 +28228,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28325,7 +28325,7 @@
         <v>1</v>
       </c>
       <c r="Q540">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R540">
         <v>4</v>
@@ -28378,7 +28378,7 @@
         <v>1</v>
       </c>
       <c r="Q541">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R541">
         <v>0</v>
@@ -28431,7 +28431,7 @@
         <v>1</v>
       </c>
       <c r="Q542">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R542">
         <v>0</v>
@@ -28475,10 +28475,10 @@
         <v>1</v>
       </c>
       <c r="P543" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q543">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28519,7 +28519,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
